--- a/biology/Zoologie/Edops_craigi/Edops_craigi.xlsx
+++ b/biology/Zoologie/Edops_craigi/Edops_craigi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Edops
 Edops est un genre fossile de temnospondyles. Ce genre n'est représenté que par une seule espèce : Edops craigi, mesurant 2 mètres de long. 
@@ -512,9 +524,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Edops et l'espèce Edops craigi sont décrits en 1936 par le paléontologue américain Alfred Sherwood Romer (1894-1973)[1],[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Edops et l'espèce Edops craigi sont décrits en 1936 par le paléontologue américain Alfred Sherwood Romer (1894-1973).
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Contrairement aux types plus tardifs, ces espèces présentaient un motif archaïque d'os palatal et possédaient encore divers os supplémentaires à l'arrière du crâne. Les Edopoidea avaient également des prémaxillées particulièrement grosses (les os qui forment la pointe du museau) et des narines externes proportionnellement petites. Au sein du clade, le membre le plus basal semble être Edops de la formation des premiers Permiens de l'époque du Permien inférieur, un animal à tête large et à grandes dents palatines. Il a été nommé « face de glouton » en raison de ses grandes mâchoires (du latin edo "glouton" et du grec ops "face, regard").
 Les fossiles fragmentaires du Viséen d’Écosse semblent provenir d’Edops ou d’un proche parent et sont donc antérieurs aux fossiles d’Edops du Permien.
@@ -575,9 +591,11 @@
           <t>Cladogramme Edopoidea</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ci-dessous, un cladogramme des Temnospondyli montrant les relations des Edopoidea de Christian A. Sidor (en) et al. (2006)[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ci-dessous, un cladogramme des Temnospondyli montrant les relations des Edopoidea de Christian A. Sidor (en) et al. (2006) :
 </t>
         </is>
       </c>
